--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2677.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2677.xlsx
@@ -354,7 +354,7 @@
         <v>2.421104511693214</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.330058939935931</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2677.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2677.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160953240403393</v>
+        <v>0.9355671405792236</v>
       </c>
       <c r="B1">
-        <v>2.421104511693214</v>
+        <v>1.085562944412231</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.397915840148926</v>
       </c>
       <c r="D1">
-        <v>2.330058939935931</v>
+        <v>3.071463346481323</v>
       </c>
       <c r="E1">
-        <v>1.212102118672847</v>
+        <v>4.291028022766113</v>
       </c>
     </row>
   </sheetData>
